--- a/Team-Data/2012-13/12-6-2012-13.xlsx
+++ b/Team-Data/2012-13/12-6-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>6</v>
@@ -762,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -789,10 +856,10 @@
         <v>24</v>
       </c>
       <c r="AS2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -962,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>3.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>7</v>
@@ -1120,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1144,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>25</v>
@@ -1159,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>4</v>
@@ -1183,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="BC4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1335,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1484,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1666,7 +1733,7 @@
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1678,7 +1745,7 @@
         <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
         <v>6</v>
@@ -1711,7 +1778,7 @@
         <v>23</v>
       </c>
       <c r="AW7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1720,10 +1787,10 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.474</v>
+        <v>0.444</v>
       </c>
       <c r="H8" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I8" t="n">
         <v>36.6</v>
       </c>
       <c r="J8" t="n">
-        <v>82.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O8" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
         <v>31.9</v>
       </c>
       <c r="T8" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W8" t="n">
         <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y8" t="n">
         <v>4.4</v>
@@ -1833,34 +1900,34 @@
         <v>98.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
         <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>16</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
@@ -1878,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS8" t="n">
         <v>9</v>
@@ -1887,10 +1954,10 @@
         <v>19</v>
       </c>
       <c r="AU8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
@@ -2030,10 +2097,10 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>9</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2421,7 +2488,7 @@
         <v>11</v>
       </c>
       <c r="AQ11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR11" t="n">
         <v>15</v>
@@ -2433,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>14</v>
@@ -2603,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR12" t="n">
         <v>4</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
         <v>26</v>
@@ -2636,7 +2703,7 @@
         <v>23</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>9</v>
@@ -2782,7 +2849,7 @@
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2940,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2973,7 +3040,7 @@
         <v>23</v>
       </c>
       <c r="AS14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT14" t="n">
         <v>24</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3134,7 +3201,7 @@
         <v>7</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
@@ -3185,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>8.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
@@ -3367,7 +3434,7 @@
         <v>9</v>
       </c>
       <c r="BC16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -3396,91 +3463,91 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
         <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.706</v>
+        <v>0.75</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>38.8</v>
+        <v>39.2</v>
       </c>
       <c r="J17" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.489</v>
+        <v>0.493</v>
       </c>
       <c r="L17" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M17" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.411</v>
+        <v>0.413</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="S17" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="V17" t="n">
         <v>13.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y17" t="n">
         <v>3.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.6</v>
+        <v>104.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
         <v>5</v>
@@ -3489,37 +3556,37 @@
         <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
         <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>29</v>
@@ -3540,16 +3607,16 @@
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -3656,19 +3723,19 @@
         <v>-2.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3707,13 +3774,13 @@
         <v>18</v>
       </c>
       <c r="AU18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV18" t="n">
         <v>6</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3722,10 +3789,10 @@
         <v>3</v>
       </c>
       <c r="AZ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>0.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
@@ -3892,7 +3959,7 @@
         <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4065,13 +4132,13 @@
         <v>19</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>20</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.778</v>
+        <v>0.765</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J21" t="n">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.455</v>
       </c>
       <c r="L21" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="M21" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
         <v>0.407</v>
       </c>
       <c r="O21" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P21" t="n">
         <v>20.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.766</v>
+        <v>0.773</v>
       </c>
       <c r="R21" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="U21" t="n">
         <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
         <v>9.1</v>
@@ -4193,16 +4260,16 @@
         <v>18.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>103.2</v>
+        <v>102.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>3</v>
@@ -4214,13 +4281,13 @@
         <v>4</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
         <v>9</v>
@@ -4241,16 +4308,16 @@
         <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>25</v>
       </c>
       <c r="AS21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU21" t="n">
         <v>25</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
@@ -4405,7 +4472,7 @@
         <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>22</v>
@@ -4578,7 +4645,7 @@
         <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>13</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>9</v>
@@ -4760,13 +4827,13 @@
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>22</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -4852,100 +4919,100 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.35</v>
+        <v>0.368</v>
       </c>
       <c r="H25" t="n">
         <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J25" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L25" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M25" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O25" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P25" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R25" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S25" t="n">
         <v>29.1</v>
       </c>
       <c r="T25" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V25" t="n">
         <v>14.2</v>
       </c>
       <c r="W25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z25" t="n">
         <v>21.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ25" t="n">
         <v>2</v>
@@ -4963,10 +5030,10 @@
         <v>22</v>
       </c>
       <c r="AO25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP25" t="n">
         <v>24</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>21</v>
@@ -4987,7 +5054,7 @@
         <v>7</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4999,10 +5066,10 @@
         <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>-3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>22</v>
@@ -5130,7 +5197,7 @@
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
@@ -5148,7 +5215,7 @@
         <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>20</v>
@@ -5160,7 +5227,7 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5169,7 +5236,7 @@
         <v>14</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX26" t="n">
         <v>20</v>
@@ -5184,7 +5251,7 @@
         <v>15</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5312,7 +5379,7 @@
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
@@ -5327,10 +5394,10 @@
         <v>20</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5491,7 +5558,7 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
@@ -5500,7 +5567,7 @@
         <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
@@ -5685,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN29" t="n">
         <v>18</v>
@@ -5694,7 +5761,7 @@
         <v>10</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ29" t="n">
         <v>8</v>
@@ -5703,7 +5770,7 @@
         <v>20</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -5852,16 +5919,16 @@
         <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6058,7 +6125,7 @@
         <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-6-2012-13</t>
+          <t>2012-12-06</t>
         </is>
       </c>
     </row>
